--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achims_tab\Documents\own_SW\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE13FBE-26C5-48D6-A23C-BCF78665D89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10583F5E-CE39-4EEF-8A08-BB48A6F4BD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
   <si>
     <t>WKN</t>
   </si>
@@ -481,6 +481,15 @@
   </si>
   <si>
     <t>get to Alibaba ohne ADR</t>
+  </si>
+  <si>
+    <t>NFLX</t>
+  </si>
+  <si>
+    <t>BNTX</t>
+  </si>
+  <si>
+    <t>SONO</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2126,6 +2135,26 @@
       </c>
       <c r="J41" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achims_tab\Documents\own_SW\stock_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10583F5E-CE39-4EEF-8A08-BB48A6F4BD39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50B5194-FA00-4D46-BF27-8397196026DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Have_List" sheetId="1" r:id="rId1"/>
@@ -864,16 +864,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.06640625" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -931,7 +931,7 @@
         <v>44510</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -957,7 +957,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -983,7 +983,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>44387</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>44387</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -1633,15 +1633,15 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -2131,30 +2131,54 @@
         <v>5</v>
       </c>
       <c r="I41" s="5">
-        <v>44197</v>
+        <v>44202</v>
       </c>
       <c r="J41" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H42">
+        <v>5</v>
+      </c>
+      <c r="I42" s="5">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43" s="5">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H44">
+        <v>5</v>
+      </c>
+      <c r="I44" s="5">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
+      </c>
+      <c r="H45">
+        <v>5</v>
+      </c>
+      <c r="I45" s="5">
+        <v>44202</v>
       </c>
     </row>
   </sheetData>
@@ -2171,13 +2195,13 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2206,7 +2230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2217,7 +2241,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -2228,7 +2252,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2239,7 +2263,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -2250,7 +2274,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
       </c>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50B5194-FA00-4D46-BF27-8397196026DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187BF26-615E-4871-AF71-D5D128341866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Have_List" sheetId="1" r:id="rId1"/>
@@ -1632,7 +1632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
@@ -2191,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2246,7 @@
         <v>105</v>
       </c>
       <c r="H3">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
         <v>44075</v>
@@ -2257,7 +2257,7 @@
         <v>92</v>
       </c>
       <c r="H4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I4" s="5">
         <v>44075</v>
@@ -2268,7 +2268,7 @@
         <v>106</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I5" s="5">
         <v>44075</v>
@@ -2277,6 +2277,9 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>107</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
       </c>
       <c r="H6">
         <v>40</v>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3187BF26-615E-4871-AF71-D5D128341866}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B600B0FB-0F01-4909-A3C8-D08E4482C26B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Have_List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
   <si>
     <t>WKN</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>SONO</t>
+  </si>
+  <si>
+    <t>C3RY.DE</t>
   </si>
 </sst>
 </file>
@@ -1630,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,6 +2184,17 @@
         <v>44202</v>
       </c>
     </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46" s="5">
+        <v>44202</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2191,7 +2205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B600B0FB-0F01-4909-A3C8-D08E4482C26B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A910C0-AB6F-4059-A380-9912D6D52229}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="157">
   <si>
     <t>WKN</t>
   </si>
@@ -1633,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2193,6 +2193,17 @@
       </c>
       <c r="I46" s="5">
         <v>44202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47" s="5">
+        <v>44197</v>
       </c>
     </row>
   </sheetData>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A910C0-AB6F-4059-A380-9912D6D52229}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F649C4E1-9D64-408A-A671-9B080D797841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Have_List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
   <si>
     <t>WKN</t>
   </si>
@@ -493,6 +493,12 @@
   </si>
   <si>
     <t>C3RY.DE</t>
+  </si>
+  <si>
+    <t>ENR.DE</t>
+  </si>
+  <si>
+    <t>DBK.DE</t>
   </si>
 </sst>
 </file>
@@ -1633,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,6 +2210,28 @@
       </c>
       <c r="I47" s="5">
         <v>44197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48">
+        <v>5</v>
+      </c>
+      <c r="I48" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49" s="5">
+        <v>44353</v>
       </c>
     </row>
   </sheetData>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F649C4E1-9D64-408A-A671-9B080D797841}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF0F5C-67AA-4109-BC67-EE52D9A7AA26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="163">
   <si>
     <t>WKN</t>
   </si>
@@ -499,16 +499,36 @@
   </si>
   <si>
     <t>DBK.DE</t>
+  </si>
+  <si>
+    <t>VAR1.DE</t>
+  </si>
+  <si>
+    <t>Brief_16406.pdf</t>
+  </si>
+  <si>
+    <t>ADYEN.AS</t>
+  </si>
+  <si>
+    <t>ENR.DE 19,18 -0.5 -2.52 : Siemens Energy AG – Yahoo Finanzen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,18 +563,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1639,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:I52"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2046,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -2034,7 +2057,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -2045,7 +2068,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -2059,7 +2082,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2073,7 +2096,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2087,7 +2110,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2101,7 +2124,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -2115,7 +2138,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2132,7 +2155,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -2146,7 +2169,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2157,7 +2180,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2168,7 +2191,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -2179,7 +2202,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -2190,7 +2213,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -2201,7 +2224,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2211,8 +2234,11 @@
       <c r="I47" s="5">
         <v>44197</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -2223,7 +2249,7 @@
         <v>44353</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -2234,9 +2260,38 @@
         <v>44353</v>
       </c>
     </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>159</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50" s="5">
+        <v>44353</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51" s="5">
+        <v>44197</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K50" r:id="rId1" display="../../../../../../AppData/Local/Microsoft/Windows/INetCache/Content.Outlook/8KRIJWVA/Brief_16406.pdf" xr:uid="{128A9B0F-5BF5-4996-AE43-5AA153117242}"/>
+    <hyperlink ref="K47" r:id="rId2" location="eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" display="https://de.finance.yahoo.com/chart/ENR.DE - eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" xr:uid="{D87816D7-FD0D-4FD3-A1B7-3D5B15AAF797}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF0F5C-67AA-4109-BC67-EE52D9A7AA26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2F00F-19B3-4761-88CA-470C578C8D54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achims_tab\Documents\own_SW\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA2F00F-19B3-4761-88CA-470C578C8D54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E235AFF-087E-4C5A-9651-20C17A1495FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Have_List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
   <si>
     <t>WKN</t>
   </si>
@@ -511,6 +511,12 @@
   </si>
   <si>
     <t>ENR.DE 19,18 -0.5 -2.52 : Siemens Energy AG – Yahoo Finanzen</t>
+  </si>
+  <si>
+    <t>TMV.de</t>
+  </si>
+  <si>
+    <t>GPRO</t>
   </si>
 </sst>
 </file>
@@ -896,16 +902,16 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -963,7 +969,7 @@
         <v>44510</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -989,7 +995,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1070,7 +1076,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -1203,7 +1209,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>44387</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1339,7 +1345,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>69</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>44387</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1443,7 +1449,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>79</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>44265</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>82</v>
       </c>
@@ -1495,7 +1501,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>85</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -1550,7 +1556,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -1579,7 +1585,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>96</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -1635,7 +1641,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -1662,18 +1668,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53:I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>125</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>131</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>123</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -1991,7 +1997,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>135</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>137</v>
       </c>
@@ -2046,7 +2052,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>138</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>139</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>141</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -2169,7 +2175,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>153</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -2202,7 +2208,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>156</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>115</v>
       </c>
@@ -2238,7 +2244,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>157</v>
       </c>
@@ -2249,7 +2255,7 @@
         <v>44353</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -2260,7 +2266,7 @@
         <v>44353</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -2274,7 +2280,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -2283,6 +2289,28 @@
       </c>
       <c r="I51" s="5">
         <v>44197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="H53">
+        <v>6</v>
+      </c>
+      <c r="I53" s="5">
+        <v>44353</v>
       </c>
     </row>
   </sheetData>
@@ -2303,13 +2331,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2349,7 +2377,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -2360,7 +2388,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2371,7 +2399,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -2382,7 +2410,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>107</v>
       </c>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achims_tab\Documents\own_SW\github\stock_check\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E235AFF-087E-4C5A-9651-20C17A1495FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE50800-4CDA-4610-BB67-2CFAD1D23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Have_List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="152">
   <si>
     <t>WKN</t>
   </si>
@@ -111,39 +111,12 @@
     <t>BNP.PA</t>
   </si>
   <si>
-    <t>BNP Paribas SA</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>Option verkauf</t>
-  </si>
-  <si>
     <t>EVD.DE</t>
   </si>
   <si>
-    <t>CTS Eventim AG &amp; Co. KGaA</t>
-  </si>
-  <si>
     <t>-++++-</t>
   </si>
   <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>CVAC</t>
-  </si>
-  <si>
-    <t>CureVac N.V.</t>
-  </si>
-  <si>
-    <t>------</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
     <t>FEV.DE</t>
   </si>
   <si>
@@ -171,24 +144,12 @@
     <t>JD</t>
   </si>
   <si>
-    <t>JD.com, Inc.</t>
-  </si>
-  <si>
     <t>option verkauf</t>
   </si>
   <si>
-    <t>MTX.DE</t>
-  </si>
-  <si>
-    <t>MTU Aero Engines AG</t>
-  </si>
-  <si>
     <t>+++-+-</t>
   </si>
   <si>
-    <t>1.00</t>
-  </si>
-  <si>
     <t>2318.HK</t>
   </si>
   <si>
@@ -252,9 +213,6 @@
     <t>-+----</t>
   </si>
   <si>
-    <t>0.96</t>
-  </si>
-  <si>
     <t>VOW3.DE</t>
   </si>
   <si>
@@ -285,9 +243,6 @@
     <t>UBS Group AG</t>
   </si>
   <si>
-    <t>1.11</t>
-  </si>
-  <si>
     <t>SAP.DE</t>
   </si>
   <si>
@@ -306,12 +261,6 @@
     <t>Bayer Aktiengesellschaft</t>
   </si>
   <si>
-    <t>1.01</t>
-  </si>
-  <si>
-    <t>Verkauf am trend</t>
-  </si>
-  <si>
     <t>INTC</t>
   </si>
   <si>
@@ -517,13 +466,25 @@
   </si>
   <si>
     <t>GPRO</t>
+  </si>
+  <si>
+    <t>SPOT</t>
+  </si>
+  <si>
+    <t>FR0013416716.AS</t>
+  </si>
+  <si>
+    <t>AMUNDI PHYSICAL GOLD</t>
+  </si>
+  <si>
+    <t>Siemens Energy AG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,8 +500,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -559,8 +535,13 @@
         <bgColor rgb="FF99CC00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -568,12 +549,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -581,8 +578,11 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -896,22 +896,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -937,218 +937,201 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>163.9700012207031</v>
+        <v>20.60000038146973</v>
       </c>
       <c r="F2" s="2">
-        <v>142.28999481201171</v>
+        <v>17.93500032424927</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="I2" s="3">
-        <v>44510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>161.55999755859381</v>
+        <v>56.700000762939453</v>
       </c>
       <c r="F3" s="2">
-        <v>130</v>
+        <v>48.195000648498542</v>
       </c>
       <c r="H3">
         <v>-15</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
+        <v>44387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>13.560000419616699</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12.34200038909912</v>
+      </c>
+      <c r="H4">
+        <v>-25</v>
+      </c>
+      <c r="I4" s="3">
         <v>44265</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>91.760002136230469</v>
-      </c>
-      <c r="F4" s="2">
-        <v>66.8</v>
-      </c>
-      <c r="H4">
-        <v>-15</v>
-      </c>
-      <c r="I4" s="3">
-        <v>44114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>60.479999542236328</v>
+        <v>163.9700012207031</v>
       </c>
       <c r="F5" s="2">
-        <v>44.965001296997073</v>
+        <v>142.28999481201171</v>
       </c>
       <c r="H5">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>57.770000457763672</v>
-      </c>
-      <c r="F6" s="2">
-        <v>46.426999092102058</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F6" s="2"/>
       <c r="H6">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="I6" s="3">
-        <v>44022</v>
-      </c>
-      <c r="O6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
       <c r="E7">
-        <v>59.200000762939453</v>
+        <v>161.55999755859381</v>
       </c>
       <c r="F7" s="2">
-        <v>52.52</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <v>-15</v>
       </c>
       <c r="I7" s="3">
-        <v>44022</v>
-      </c>
-      <c r="O7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>70.739997863769531</v>
+        <v>91.760002136230469</v>
       </c>
       <c r="F8" s="2">
-        <v>55.453998184204103</v>
+        <v>66.8</v>
       </c>
       <c r="H8">
         <v>-15</v>
       </c>
       <c r="I8" s="3">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>35.330001831054688</v>
-      </c>
-      <c r="F9" s="1">
-        <v>37.315001296997067</v>
+        <v>60.479999542236328</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44.965001296997073</v>
       </c>
       <c r="H9">
         <v>-15</v>
@@ -1157,24 +1140,24 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>19.29999923706055</v>
+        <v>57.770000457763672</v>
       </c>
       <c r="F10" s="2">
-        <v>19</v>
+        <v>46.426999092102058</v>
       </c>
       <c r="H10">
         <v>-15</v>
@@ -1182,80 +1165,72 @@
       <c r="I10" s="3">
         <v>44022</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>13.939999580383301</v>
+        <v>12.659999847412109</v>
       </c>
       <c r="F11" s="2">
-        <v>11.355999708175659</v>
+        <v>9.31</v>
       </c>
       <c r="H11">
-        <v>-15</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+        <v>-20</v>
+      </c>
+      <c r="I11" s="4">
+        <v>44504</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12">
-        <v>77.739997863769531</v>
-      </c>
-      <c r="F12" s="2">
-        <v>70</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="H12">
         <v>-20</v>
       </c>
-      <c r="I12" s="3">
-        <v>44015</v>
-      </c>
-      <c r="O12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="I12" s="4">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>205.1000061035156</v>
+        <v>19.29999923706055</v>
       </c>
       <c r="F13" s="2">
-        <v>160.90500259399411</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>-15</v>
@@ -1264,942 +1239,798 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14">
-        <v>56.700000762939453</v>
-      </c>
-      <c r="F14" s="2">
-        <v>48.195000648498542</v>
-      </c>
-      <c r="H14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15">
+        <v>13.939999580383301</v>
+      </c>
+      <c r="F15" s="2">
+        <v>11.355999708175659</v>
+      </c>
+      <c r="H15">
         <v>-15</v>
       </c>
-      <c r="I14" s="4">
-        <v>44387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="I15" s="3">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="E15">
-        <v>12.659999847412109</v>
-      </c>
-      <c r="F15" s="2">
-        <v>9.31</v>
-      </c>
-      <c r="H15">
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>50.759998321533203</v>
+      </c>
+      <c r="F16" s="2">
+        <v>47</v>
+      </c>
+      <c r="H16">
         <v>-20</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I16" s="4">
         <v>44504</v>
       </c>
-      <c r="O15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16">
-        <v>163.19999694824219</v>
-      </c>
-      <c r="F16" s="2">
-        <v>110.5850051879883</v>
-      </c>
-      <c r="H16">
-        <v>-15</v>
-      </c>
-      <c r="I16" s="3">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>18.79999923706055</v>
+        <v>85.860000610351563</v>
       </c>
       <c r="F17" s="2">
-        <v>14.535000324249269</v>
+        <v>79</v>
       </c>
       <c r="H17">
         <v>-15</v>
       </c>
-      <c r="I17" s="3">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="I17" s="4"/>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E18">
-        <v>28.840000152587891</v>
+        <v>127.6800003051758</v>
       </c>
       <c r="F18" s="2">
-        <v>23.366499805450431</v>
+        <v>115</v>
       </c>
       <c r="H18">
         <v>-15</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
+        <v>44022</v>
+      </c>
+      <c r="O18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>28.840000152587891</v>
+      </c>
+      <c r="F19" s="2">
+        <v>23.366499805450431</v>
+      </c>
+      <c r="H19">
+        <v>-15</v>
+      </c>
+      <c r="I19" s="4">
         <v>44387</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19">
-        <v>30.379999160766602</v>
-      </c>
-      <c r="F19" s="2">
-        <v>27.370000648498539</v>
-      </c>
-      <c r="H19">
-        <v>-20</v>
-      </c>
-      <c r="I19" s="3">
-        <v>44022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>72</v>
+        <v>30</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E20">
-        <v>185.6000061035156</v>
+        <v>163.19999694824219</v>
       </c>
       <c r="F20" s="2">
-        <v>164.42400207519529</v>
+        <v>110.5850051879883</v>
       </c>
       <c r="H20">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="I20" s="3">
         <v>44022</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>13.560000419616699</v>
+        <v>18.79999923706055</v>
       </c>
       <c r="F21" s="2">
-        <v>12.34200038909912</v>
+        <v>14.535000324249269</v>
       </c>
       <c r="H21">
-        <v>-25</v>
+        <v>-15</v>
       </c>
       <c r="I21" s="3">
-        <v>44265</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22">
-        <v>20.60000038146973</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2">
-        <v>17.93500032424927</v>
+        <v>13.25</v>
       </c>
       <c r="H22">
-        <v>-15</v>
-      </c>
-      <c r="I22" s="3">
+        <v>-20</v>
+      </c>
+      <c r="I22" s="5">
+        <v>44544</v>
+      </c>
+      <c r="O22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>185.6000061035156</v>
+      </c>
+      <c r="F23" s="2">
+        <v>164.42400207519529</v>
+      </c>
+      <c r="H23">
+        <v>-20</v>
+      </c>
+      <c r="I23" s="3">
         <v>44022</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23">
-        <v>18.090000152587891</v>
-      </c>
-      <c r="F23" s="2">
-        <v>14</v>
-      </c>
-      <c r="H23">
-        <v>-15</v>
-      </c>
-      <c r="I23" s="3">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24">
-        <v>127.6800003051758</v>
-      </c>
-      <c r="F24" s="2">
-        <v>115</v>
-      </c>
-      <c r="H24">
-        <v>-15</v>
-      </c>
-      <c r="I24" s="3">
-        <v>44022</v>
-      </c>
-      <c r="O24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25">
-        <v>51.25</v>
-      </c>
-      <c r="F25" s="2">
-        <v>46.3</v>
-      </c>
-      <c r="H25">
-        <v>-15</v>
-      </c>
-      <c r="I25" s="3">
-        <v>44387</v>
-      </c>
-      <c r="O25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26">
-        <v>50.759998321533203</v>
-      </c>
-      <c r="F26" s="2">
-        <v>47</v>
-      </c>
-      <c r="H26">
-        <v>-20</v>
-      </c>
-      <c r="I26" s="4">
-        <v>44504</v>
-      </c>
-      <c r="O26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27">
-        <v>85.860000610351563</v>
-      </c>
-      <c r="F27" s="2">
-        <v>79</v>
-      </c>
-      <c r="H27">
-        <v>-15</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="O27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B28" t="s">
-        <v>144</v>
-      </c>
-      <c r="F28" s="2">
-        <v>13.25</v>
-      </c>
-      <c r="H28">
-        <v>-20</v>
-      </c>
-      <c r="I28" s="5">
-        <v>44544</v>
-      </c>
-      <c r="O28" t="s">
-        <v>145</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O23">
+    <sortCondition ref="A2:A23"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53:I53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="I1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44348</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44202</v>
+      </c>
+      <c r="J3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3">
         <v>44440</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3">
         <v>44440</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="H7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I8" s="3">
         <v>44440</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3">
         <v>44440</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="H10">
-        <v>6</v>
-      </c>
-      <c r="I10" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I10" s="5">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H11">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
-      <c r="I12" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="I12" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14" s="5">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18">
+        <v>9</v>
+      </c>
+      <c r="I18" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5">
+        <v>44355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23">
+        <v>9</v>
+      </c>
+      <c r="I23" s="5">
+        <v>44353</v>
+      </c>
+      <c r="J23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24">
+        <v>15.2</v>
+      </c>
+      <c r="H24">
+        <v>-3</v>
+      </c>
+      <c r="I24" s="5">
+        <v>44448</v>
+      </c>
+      <c r="J24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27" s="5">
+        <v>44353</v>
+      </c>
+      <c r="J27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30" s="5">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31">
+        <v>9</v>
+      </c>
+      <c r="I31" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36">
+        <v>8</v>
+      </c>
+      <c r="I36" s="5">
+        <v>44197</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="H37">
+        <v>9</v>
+      </c>
+      <c r="I37" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>121</v>
       </c>
-      <c r="H13">
-        <v>9</v>
-      </c>
-      <c r="I13" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>122</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="I14" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <v>9</v>
-      </c>
-      <c r="I15" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-      <c r="I16" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-      <c r="I17" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-      <c r="I18" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19">
-        <v>9</v>
-      </c>
-      <c r="I19" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20">
-        <v>9</v>
-      </c>
-      <c r="I20" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>127</v>
-      </c>
-      <c r="H21">
-        <v>9</v>
-      </c>
-      <c r="I21" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22">
-        <v>9</v>
-      </c>
-      <c r="I22" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23">
-        <v>9</v>
-      </c>
-      <c r="I23" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24">
-        <v>9</v>
-      </c>
-      <c r="I24" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H25">
-        <v>9</v>
-      </c>
-      <c r="I25" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H26">
-        <v>9</v>
-      </c>
-      <c r="I26" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>132</v>
-      </c>
-      <c r="H27">
-        <v>9</v>
-      </c>
-      <c r="I27" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28">
-        <v>9</v>
-      </c>
-      <c r="I28" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="H29">
-        <v>9</v>
-      </c>
-      <c r="I29" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30">
-        <v>9</v>
-      </c>
-      <c r="I30" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>136</v>
-      </c>
-      <c r="H31">
-        <v>9</v>
-      </c>
-      <c r="I31" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32">
-        <v>9</v>
-      </c>
-      <c r="I32" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>138</v>
-      </c>
-      <c r="H33">
-        <v>9</v>
-      </c>
-      <c r="I33" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>139</v>
-      </c>
-      <c r="H34">
-        <v>9</v>
-      </c>
-      <c r="I34" s="3">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>140</v>
-      </c>
-      <c r="H35">
-        <v>9</v>
-      </c>
-      <c r="I35" s="3">
-        <v>44075</v>
-      </c>
-      <c r="J35" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>141</v>
-      </c>
-      <c r="H36">
-        <v>9</v>
-      </c>
-      <c r="I36" s="5">
-        <v>44353</v>
-      </c>
-      <c r="J36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37">
-        <v>9</v>
-      </c>
-      <c r="I37" s="5">
-        <v>44353</v>
-      </c>
-      <c r="J37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38">
-        <v>9</v>
-      </c>
-      <c r="I38" s="5">
-        <v>44353</v>
-      </c>
-      <c r="J38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39">
-        <v>8</v>
-      </c>
-      <c r="I39" s="5">
-        <v>44348</v>
-      </c>
-      <c r="J39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40">
-        <v>15.2</v>
-      </c>
-      <c r="H40">
-        <v>-3</v>
-      </c>
-      <c r="I40" s="5">
-        <v>44448</v>
-      </c>
-      <c r="J40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41">
-        <v>5</v>
-      </c>
-      <c r="I41" s="5">
-        <v>44202</v>
-      </c>
-      <c r="J41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42">
-        <v>5</v>
-      </c>
-      <c r="I42" s="5">
-        <v>44202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43">
-        <v>5</v>
-      </c>
-      <c r="I43" s="5">
-        <v>44202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>154</v>
       </c>
       <c r="H44">
         <v>5</v>
@@ -2208,103 +2039,100 @@
         <v>44202</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="H45">
-        <v>5</v>
-      </c>
-      <c r="I45" s="5">
-        <v>44202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I45" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H46">
         <v>6</v>
       </c>
       <c r="I46" s="5">
-        <v>44202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="H47">
-        <v>8</v>
-      </c>
-      <c r="I47" s="5">
-        <v>44197</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I47" s="3">
+        <v>44075</v>
+      </c>
+      <c r="J47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="H48">
-        <v>5</v>
-      </c>
-      <c r="I48" s="5">
-        <v>44353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I48" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I49" s="5">
         <v>44353</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>159</v>
-      </c>
-      <c r="H50">
-        <v>6</v>
-      </c>
-      <c r="I50" s="5">
-        <v>44353</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="H51">
-        <v>5</v>
-      </c>
-      <c r="I51" s="5">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I51" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>117</v>
       </c>
       <c r="H52">
-        <v>6</v>
-      </c>
-      <c r="I52" s="5">
-        <v>44353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="H53">
         <v>6</v>
@@ -2313,10 +2141,79 @@
         <v>44353</v>
       </c>
     </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56" s="5">
+        <v>44353</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H58">
+        <v>9</v>
+      </c>
+      <c r="I58" s="3">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59">
+        <v>9</v>
+      </c>
+      <c r="I59" s="3">
+        <v>44440</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O59">
+    <sortCondition ref="A2:A59"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="K50" r:id="rId1" display="../../../../../../AppData/Local/Microsoft/Windows/INetCache/Content.Outlook/8KRIJWVA/Brief_16406.pdf" xr:uid="{128A9B0F-5BF5-4996-AE43-5AA153117242}"/>
-    <hyperlink ref="K47" r:id="rId2" location="eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" display="https://de.finance.yahoo.com/chart/ENR.DE - eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" xr:uid="{D87816D7-FD0D-4FD3-A1B7-3D5B15AAF797}"/>
+    <hyperlink ref="K56" r:id="rId1" display="../../../../../../AppData/Local/Microsoft/Windows/INetCache/Content.Outlook/8KRIJWVA/Brief_16406.pdf" xr:uid="{128A9B0F-5BF5-4996-AE43-5AA153117242}"/>
+    <hyperlink ref="K36" r:id="rId2" location="eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" display="https://de.finance.yahoo.com/chart/ENR.DE - eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" xr:uid="{D87816D7-FD0D-4FD3-A1B7-3D5B15AAF797}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2331,13 +2228,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2366,9 +2263,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -2377,9 +2274,9 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2388,9 +2285,9 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2399,9 +2296,9 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2410,9 +2307,9 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <v>10000</v>

--- a/LimitCheck.xlsx
+++ b/LimitCheck.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vollmera\Documents\SVN_home\trunk\SW_app\github\stock_check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE50800-4CDA-4610-BB67-2CFAD1D23B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC19685E-73F0-4B85-83B2-3766579FAC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25215" yWindow="1440" windowWidth="22305" windowHeight="13410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Have_List" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="154">
   <si>
     <t>WKN</t>
   </si>
@@ -207,9 +207,6 @@
     <t>TCOM</t>
   </si>
   <si>
-    <t>Trip.com Group Limited</t>
-  </si>
-  <si>
     <t>-+----</t>
   </si>
   <si>
@@ -478,6 +475,15 @@
   </si>
   <si>
     <t>Siemens Energy AG</t>
+  </si>
+  <si>
+    <t>IXX.F</t>
+  </si>
+  <si>
+    <t>VQT.DE</t>
+  </si>
+  <si>
+    <t>Brief_16438.pdf</t>
   </si>
 </sst>
 </file>
@@ -898,7 +904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
@@ -937,7 +943,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O1" t="s">
         <v>9</v>
@@ -945,16 +951,16 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2">
         <v>20.60000038146973</v>
@@ -997,16 +1003,16 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E4">
         <v>13.560000419616699</v>
@@ -1049,10 +1055,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
         <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
       </c>
       <c r="F6" s="2"/>
       <c r="H6">
@@ -1166,7 +1172,7 @@
         <v>44022</v>
       </c>
       <c r="O10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1200,10 +1206,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F12" s="2"/>
       <c r="H12">
@@ -1241,10 +1247,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" t="s">
         <v>149</v>
-      </c>
-      <c r="B14" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1275,16 +1281,16 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
         <v>79</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>80</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>81</v>
       </c>
       <c r="E16">
         <v>50.759998321533203</v>
@@ -1299,18 +1305,18 @@
         <v>44504</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
         <v>83</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>85</v>
       </c>
       <c r="D17" t="s">
         <v>49</v>
@@ -1326,21 +1332,21 @@
       </c>
       <c r="I17" s="4"/>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" t="s">
         <v>73</v>
-      </c>
-      <c r="B18" t="s">
-        <v>74</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18">
         <v>127.6800003051758</v>
@@ -1355,7 +1361,7 @@
         <v>44022</v>
       </c>
       <c r="O18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1438,10 +1444,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="2">
         <v>13.25</v>
@@ -1453,15 +1459,15 @@
         <v>44544</v>
       </c>
       <c r="O22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
         <v>63</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
       </c>
       <c r="C23" t="s">
         <v>48</v>
@@ -1493,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B380F7C2-8FCD-4764-9E2D-3EDBCFAD427C}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -1556,12 +1562,12 @@
         <v>44348</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3">
         <v>5</v>
@@ -1570,12 +1576,12 @@
         <v>44202</v>
       </c>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -1586,7 +1592,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H5">
         <v>9</v>
@@ -1608,7 +1614,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -1630,7 +1636,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -1652,7 +1658,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1663,43 +1669,43 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12" s="5">
-        <v>44353</v>
+        <v>9</v>
+      </c>
+      <c r="I12" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="H13">
-        <v>9</v>
-      </c>
-      <c r="I13" s="3">
-        <v>44440</v>
+        <v>6</v>
+      </c>
+      <c r="I13" s="5">
+        <v>44202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14" s="5">
-        <v>44202</v>
+        <v>9</v>
+      </c>
+      <c r="I14" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
         <v>44440</v>
@@ -1707,10 +1713,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I16" s="3">
         <v>44440</v>
@@ -1718,7 +1724,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -1729,132 +1735,132 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="H18">
-        <v>9</v>
-      </c>
-      <c r="I18" s="3">
-        <v>44440</v>
+        <v>5</v>
+      </c>
+      <c r="I18" s="5">
+        <v>44353</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>44353</v>
+        <v>6</v>
+      </c>
+      <c r="I19" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="H20">
-        <v>6</v>
-      </c>
-      <c r="I20" s="3">
-        <v>44440</v>
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
+        <v>44353</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I21" s="5">
-        <v>44353</v>
+        <v>44355</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I22" s="5">
-        <v>44355</v>
+        <v>44353</v>
+      </c>
+      <c r="J22" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="F23">
+        <v>15.2</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>-3</v>
       </c>
       <c r="I23" s="5">
-        <v>44353</v>
+        <v>44448</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24">
-        <v>15.2</v>
+        <v>146</v>
       </c>
       <c r="H24">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="I24" s="5">
-        <v>44448</v>
-      </c>
-      <c r="J24" t="s">
-        <v>133</v>
+        <v>44353</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25" s="5">
-        <v>44353</v>
+        <v>9</v>
+      </c>
+      <c r="I25" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="H26">
         <v>9</v>
       </c>
-      <c r="I26" s="3">
-        <v>44440</v>
+      <c r="I26" s="5">
+        <v>44353</v>
+      </c>
+      <c r="J26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="H27">
         <v>9</v>
       </c>
-      <c r="I27" s="5">
-        <v>44353</v>
-      </c>
-      <c r="J27" t="s">
-        <v>129</v>
+      <c r="I27" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I28" s="3">
         <v>44440</v>
@@ -1862,32 +1868,32 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="H29">
-        <v>6</v>
-      </c>
-      <c r="I29" s="3">
-        <v>44440</v>
+        <v>5</v>
+      </c>
+      <c r="I29" s="5">
+        <v>44202</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30" s="5">
-        <v>44202</v>
+        <v>9</v>
+      </c>
+      <c r="I30" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="H31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I31" s="3">
         <v>44440</v>
@@ -1895,10 +1901,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I32" s="3">
         <v>44440</v>
@@ -1906,10 +1912,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I33" s="3">
         <v>44440</v>
@@ -1917,7 +1923,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H34">
         <v>6</v>
@@ -1928,35 +1934,35 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H35">
-        <v>6</v>
-      </c>
-      <c r="I35" s="3">
-        <v>44440</v>
+        <v>8</v>
+      </c>
+      <c r="I35" s="5">
+        <v>44197</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H36">
-        <v>8</v>
-      </c>
-      <c r="I36" s="5">
-        <v>44197</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>145</v>
+        <v>9</v>
+      </c>
+      <c r="I36" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I37" s="3">
         <v>44440</v>
@@ -1964,10 +1970,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H38">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I38" s="3">
         <v>44440</v>
@@ -1975,10 +1981,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I39" s="3">
         <v>44440</v>
@@ -1986,10 +1992,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="H40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I40" s="3">
         <v>44440</v>
@@ -1997,7 +2003,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H41">
         <v>9</v>
@@ -2008,10 +2014,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="H42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I42" s="3">
         <v>44440</v>
@@ -2019,112 +2025,115 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="H43">
-        <v>6</v>
-      </c>
-      <c r="I43" s="3">
-        <v>44440</v>
+        <v>5</v>
+      </c>
+      <c r="I43" s="5">
+        <v>44202</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="H44">
-        <v>5</v>
-      </c>
-      <c r="I44" s="5">
-        <v>44202</v>
+        <v>9</v>
+      </c>
+      <c r="I44" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="H45">
-        <v>9</v>
-      </c>
-      <c r="I45" s="3">
-        <v>44440</v>
+        <v>6</v>
+      </c>
+      <c r="I45" s="5">
+        <v>44353</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H46">
-        <v>6</v>
-      </c>
-      <c r="I46" s="5">
-        <v>44353</v>
+        <v>9</v>
+      </c>
+      <c r="I46" s="3">
+        <v>44075</v>
+      </c>
+      <c r="J46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H47">
         <v>9</v>
       </c>
       <c r="I47" s="3">
-        <v>44075</v>
-      </c>
-      <c r="J47" t="s">
-        <v>126</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H48">
         <v>9</v>
       </c>
-      <c r="I48" s="3">
-        <v>44440</v>
+      <c r="I48" s="5">
+        <v>44353</v>
+      </c>
+      <c r="J48" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="H49">
         <v>9</v>
       </c>
-      <c r="I49" s="5">
-        <v>44353</v>
-      </c>
-      <c r="J49" t="s">
-        <v>129</v>
+      <c r="I49" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>61</v>
+        <v>116</v>
+      </c>
+      <c r="H50">
+        <v>9</v>
+      </c>
+      <c r="I50" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="H51">
-        <v>9</v>
-      </c>
-      <c r="I51" s="3">
-        <v>44440</v>
+        <v>6</v>
+      </c>
+      <c r="I51" s="5">
+        <v>44353</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I52" s="3">
         <v>44440</v>
@@ -2132,54 +2141,54 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>146</v>
-      </c>
-      <c r="H53">
-        <v>6</v>
-      </c>
-      <c r="I53" s="5">
-        <v>44353</v>
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="H54">
         <v>6</v>
       </c>
-      <c r="I54" s="3">
-        <v>44440</v>
+      <c r="I54" s="5">
+        <v>44353</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" t="s">
-        <v>72</v>
+        <v>101</v>
+      </c>
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="H56">
-        <v>6</v>
-      </c>
-      <c r="I56" s="5">
-        <v>44353</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>143</v>
+        <v>7</v>
+      </c>
+      <c r="I56" s="3">
+        <v>44440</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="H57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I57" s="3">
         <v>44440</v>
@@ -2187,33 +2196,25 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="H58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I58" s="3">
         <v>44440</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59">
-        <v>9</v>
-      </c>
-      <c r="I59" s="3">
-        <v>44440</v>
+      <c r="K58" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O59">
-    <sortCondition ref="A2:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O56">
+    <sortCondition ref="A2:A56"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="K56" r:id="rId1" display="../../../../../../AppData/Local/Microsoft/Windows/INetCache/Content.Outlook/8KRIJWVA/Brief_16406.pdf" xr:uid="{128A9B0F-5BF5-4996-AE43-5AA153117242}"/>
-    <hyperlink ref="K36" r:id="rId2" location="eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" display="https://de.finance.yahoo.com/chart/ENR.DE - eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" xr:uid="{D87816D7-FD0D-4FD3-A1B7-3D5B15AAF797}"/>
+    <hyperlink ref="K54" r:id="rId1" display="../../../../../../AppData/Local/Microsoft/Windows/INetCache/Content.Outlook/8KRIJWVA/Brief_16406.pdf" xr:uid="{128A9B0F-5BF5-4996-AE43-5AA153117242}"/>
+    <hyperlink ref="K35" r:id="rId2" location="eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" display="https://de.finance.yahoo.com/chart/ENR.DE - eyJpbnRlcnZhbCI6MTUsInBlcmlvZGljaXR5IjoxLCJ0aW1lVW5pdCI6Im1pbnV0ZSIsImNhbmRsZVdpZHRoIjo1LjI1OTc0MDI1OTc0MDI1OSwiZmxpcHBlZCI6ZmFsc2UsInZvbHVtZVVuZGVybGF5Ijp0cnVlLCJhZGoiOnRydWUsImNyb3NzaGFpciI6dHJ1ZSwiY2hhcnRUeXBlIjoiY2FuZGxlIiwiZXh0ZW5kZWQiOmZhbHNlLCJtYXJrZXRTZXNzaW9ucyI6e30sImFnZ3JlZ2F0aW9uVHlwZSI6Im9obGMiLCJjaGFydFNjYWxlIjoibGluZWFyIiwicGFuZWxzIjp7ImNoYXJ0Ijp7InBlcmNlbnQiOjEsImRpc3BsYXkiOiJFTlIuREUiLCJjaGFydE5hbWUiOiJjaGFydCIsImluZGV4IjowLCJ5QXhpcyI6eyJuYW1lIjoiY2hhcnQiLCJwb3NpdGlvbiI6bnVsbH0sInlheGlzTEhTIjpbXSwieWF4aXNSSFMiOlsiY2hhcnQiLCLigIx2b2wgdW5kcuKAjCJdfX0sInNldFNwYW4iOnt9LCJsaW5lV2lkdGgiOjIsInN0cmlwZWRCYWNrZ3JvdW5kIjp0cnVlLCJldmVudHMiOnRydWUsImNvbG9yIjoiIzAwODFmMiIsInN0cmlwZWRCYWNrZ3JvdWQiOnRydWUsInJhbmdlIjp7fSwiZXZlbnRNYXAiOnsiY29ycG9yYXRlIjp7ImRpdnMiOnRydWUsInNwbGl0cyI6dHJ1ZX0sInNpZ0RldiI6e319LCJzeW1ib2xzIjpbeyJzeW1ib2wiOiJFTlIuREUiLCJzeW1ib2xPYmplY3QiOnsic3ltYm9sIjoiRU5SLkRFIiwicXVvdGVUeXBlIjoiRVFVSVRZIiwiZXhjaGFuZ2VUaW1lWm9uZSI6IkV1cm9wZS9CZXJsaW4ifSwicGVyaW9kaWNpdHkiOjEsImludGVydmFsIjoxNSwidGltZVVuaXQiOiJtaW51dGUiLCJzZXRTcGFuIjp7fX1dLCJjdXN0b21SYW5nZSI6bnVsbCwic3R1ZGllcyI6eyLigIx2b2wgdW5kcuKAjCI6eyJ0eXBlIjoidm9sIHVuZHIiLCJpbnB1dHMiOnsiaWQiOiLigIx2b2wgdW5kcuKAjCIsImRpc3BsYXkiOiLigIx2b2wgdW5kcuKAjCJ9LCJvdXRwdXRzIjp7IlVwIFZvbHVtZSI6IiMwMGIwNjEiLCJEb3duIFZvbHVtZSI6IiNmZjMzM2EifSwicGFuZWwiOiJjaGFydCIsInBhcmFtZXRlcnMiOnsid2lkdGhGYWN0b3IiOjAuNDUsImNoYXJ0TmFtZSI6ImNoYXJ0IiwicGFuZWxOYW1lIjoiY2hhcnQifX19fQ--" xr:uid="{D87816D7-FD0D-4FD3-A1B7-3D5B15AAF797}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -2265,7 +2266,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -2276,7 +2277,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -2287,7 +2288,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H4">
         <v>5</v>
@@ -2298,7 +2299,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -2309,7 +2310,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6">
         <v>10000</v>
